--- a/db/AiCity-71-越南小吃拷貝.xlsx
+++ b/db/AiCity-71-越南小吃拷貝.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F3260E-FCAD-1D43-A513-707819F9478B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72109280-3D9D-6041-B555-D8CB4531554F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19400" yWindow="3300" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
+    <workbookView xWindow="21760" yWindow="6180" windowWidth="28260" windowHeight="17560" xr2:uid="{04283239-910F-F741-93A8-DC8293A23985}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -194,102 +194,97 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛肉河粉 PHO BO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉河粉 PHO HEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉麵 MI HEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉麵 MI BO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>什錦麵 MI THAP CAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炒麵 MI XAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>025</t>
   </si>
   <si>
-    <t>炒飯 COM XAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蝦仁炒飯 COM XAO TOM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉炒飯 COM XAO BO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉炒飯 COM XAO HEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋炒飯 COM XAO TRUNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滷肉飯 COM THIT KHO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉炒米線 BUN THIT XAO BO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>豬肉炒米線 BUN THIT XAO HEO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>綜合滷味 PHA LAU THAP CAM</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燙青菜 RAU LUOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燙蝦子 COM LUOC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炸雞翅 CANH GA CHIEN NUOC MAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛肉炒青菜 BO XAO RAU</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青菜炒蒜頭 RAU XAO TOI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>貢丸湯 CANH THIT VIEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大骨湯 CANH XUONG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛋花湯 CANH TRUNG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>青菜湯 CANH RAU</t>
+    <t>牛肉河粉 Phở bò</t>
+  </si>
+  <si>
+    <t>什錦麵 Mì các loại</t>
+  </si>
+  <si>
+    <t>炒麵 Mi xào</t>
+  </si>
+  <si>
+    <t>炒飯 Cơm chiên</t>
+  </si>
+  <si>
+    <t>蝦仁炒飯 Tôm chiên gạo</t>
+  </si>
+  <si>
+    <t>牛肉炒飯 Cơm rang thịt bò</t>
+  </si>
+  <si>
+    <t>豬肉炒飯 Cơm sườn chiên</t>
+  </si>
+  <si>
+    <t>蛋炒飯 Cơm chiên trứng</t>
+  </si>
+  <si>
+    <t>滷肉飯 Cơm thịt heo kho</t>
+  </si>
+  <si>
+    <t>牛肉炒米線 Mì xào thịt bò</t>
+  </si>
+  <si>
+    <t>豬肉炒米線 Mì xào thịt heo</t>
+  </si>
+  <si>
+    <t>綜合滷味 Lo-mei toàn diện</t>
+  </si>
+  <si>
+    <t>燙青菜 Rau nóng</t>
+  </si>
+  <si>
+    <t>燙蝦子 Tôm chần</t>
+  </si>
+  <si>
+    <t>炸雞翅 Cánh gà chiên</t>
+  </si>
+  <si>
+    <t>牛肉炒青菜 Rau xào thịt bò</t>
+  </si>
+  <si>
+    <t>青菜炒蒜頭 Rau ngổ xào tỏi</t>
+  </si>
+  <si>
+    <t>貢丸湯 Súp bóng cống</t>
+  </si>
+  <si>
+    <t>大骨湯 Súp xương lớn</t>
+  </si>
+  <si>
+    <t>蛋花湯 Súp trứng đánh</t>
+  </si>
+  <si>
+    <t>青菜湯 Súp rau</t>
+  </si>
+  <si>
+    <t>豬肉河粉 Phở heo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>豬肉麵  Mì</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> heo</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉麵 Mì bò</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>價格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,7 +292,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -327,6 +322,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -350,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -361,6 +363,10 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -675,13 +681,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A618237F-7E0C-354D-96CA-9ABDB6B60914}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -689,12 +695,15 @@
     <col min="1" max="1" width="9.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.6640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="2"/>
-    <col min="4" max="4" width="25.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="67" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="52.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="4"/>
+    <col min="7" max="9" width="10.83203125" style="2"/>
+    <col min="10" max="10" width="43.6640625" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -710,8 +719,11 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -721,14 +733,17 @@
       <c r="C2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>45</v>
+      <c r="D2" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -738,14 +753,17 @@
       <c r="C3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>46</v>
+      <c r="D3" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
@@ -755,14 +773,17 @@
       <c r="C4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -772,14 +793,17 @@
       <c r="C5" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>47</v>
+      <c r="D5" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -789,14 +813,17 @@
       <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>49</v>
+      <c r="D6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
@@ -806,14 +833,17 @@
       <c r="C7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
+      <c r="D7" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -823,14 +853,17 @@
       <c r="C8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
+      <c r="D8" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -840,14 +873,17 @@
       <c r="C9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
+      <c r="D9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -857,14 +893,17 @@
       <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>54</v>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -874,14 +913,17 @@
       <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>55</v>
+      <c r="D11" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -891,14 +933,17 @@
       <c r="C12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
+      <c r="D12" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -908,14 +953,17 @@
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>57</v>
+      <c r="D13" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
         <v>17</v>
       </c>
@@ -925,14 +973,17 @@
       <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>58</v>
+      <c r="D14" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -942,14 +993,17 @@
       <c r="C15" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>59</v>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -959,14 +1013,17 @@
       <c r="C16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>60</v>
+      <c r="D16" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -976,14 +1033,17 @@
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>61</v>
+      <c r="D17" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
         <v>21</v>
       </c>
@@ -993,14 +1053,17 @@
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>62</v>
+      <c r="D18" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1010,14 +1073,17 @@
       <c r="C19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>63</v>
+      <c r="D19" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>23</v>
       </c>
@@ -1027,14 +1093,17 @@
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>64</v>
+      <c r="D20" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1044,14 +1113,17 @@
       <c r="C21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>65</v>
+      <c r="D21" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>25</v>
       </c>
@@ -1061,14 +1133,17 @@
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="2" t="s">
-        <v>66</v>
+      <c r="D22" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
@@ -1078,14 +1153,17 @@
       <c r="C23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>67</v>
+      <c r="D23" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>27</v>
       </c>
@@ -1095,16 +1173,19 @@
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>68</v>
+      <c r="D24" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
@@ -1112,23 +1193,26 @@
       <c r="C25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>69</v>
+      <c r="D25" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F25" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="E29" s="3"/>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="E31" s="3"/>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:6">
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="5:5">
